--- a/data/output/FV2504_FV2410/ORDERS/17008.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17008.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="156">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="156">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -570,6 +570,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U57" totalsRowShown="0">
+  <autoFilter ref="A1:U57"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -859,7 +889,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3595,5 +3628,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDERS/17008.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17008.xlsx
@@ -1198,7 +1198,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2"/>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -3104,52 +3104,52 @@
       <c r="V39" s="5"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5" t="s">
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K40" s="5"/>
+      <c r="K40" s="2"/>
       <c r="L40" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="M40" s="5" t="s">
+      <c r="M40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N40" s="5" t="s">
+      <c r="N40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O40" s="5" t="s">
+      <c r="O40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P40" s="5"/>
+      <c r="P40" s="2"/>
       <c r="Q40" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5" t="s">
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="V40" s="5"/>
+      <c r="V40" s="2"/>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="5" t="s">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -3806,48 +3806,48 @@
       <c r="V52" s="5"/>
     </row>
     <row r="53" spans="1:22">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5" t="s">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E53" s="5"/>
+      <c r="E53" s="2"/>
       <c r="F53" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5" t="s">
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K53" s="5"/>
+      <c r="K53" s="2"/>
       <c r="L53" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="M53" s="5" t="s">
+      <c r="M53" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5" t="s">
+      <c r="N53" s="2"/>
+      <c r="O53" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P53" s="5"/>
+      <c r="P53" s="2"/>
       <c r="Q53" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5" t="s">
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="V53" s="5"/>
+      <c r="V53" s="2"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="5" t="s">
@@ -3906,48 +3906,48 @@
       <c r="V54" s="5"/>
     </row>
     <row r="55" spans="1:22">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5" t="s">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E55" s="5"/>
+      <c r="E55" s="2"/>
       <c r="F55" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5" t="s">
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K55" s="5"/>
+      <c r="K55" s="2"/>
       <c r="L55" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="M55" s="5" t="s">
+      <c r="M55" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5" t="s">
+      <c r="N55" s="2"/>
+      <c r="O55" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P55" s="5"/>
+      <c r="P55" s="2"/>
       <c r="Q55" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5" t="s">
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="V55" s="5"/>
+      <c r="V55" s="2"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="5" t="s">
